--- a/RPG spells .01.xlsx
+++ b/RPG spells .01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE67808-3153-4564-AF32-A05A23ADAEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5362802-0AB3-431C-90A8-2D9216C54E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BAFAFD6-4038-4279-AE6F-0FF687D2583E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="166">
   <si>
     <t>Spells</t>
   </si>
@@ -75,9 +75,6 @@
     <t>6 tiles</t>
   </si>
   <si>
-    <t>Shoot an inviable bolt of force at super sonic speeds at a target.Make a physical ranged attack with weapon damage 2 vs a target using your wisdom istead of your strength. This spell counts as an attack for the multiple attack penalty.</t>
-  </si>
-  <si>
     <t>Charge up</t>
   </si>
   <si>
@@ -90,33 +87,18 @@
     <t>personal</t>
   </si>
   <si>
-    <t xml:space="preserve">Strike a pose and gather power for the next attack. Your next invocation or cantrip has +2 attack, +1 damage, or it's DCs are reaised by 2. </t>
-  </si>
-  <si>
     <t>Detect Magic</t>
   </si>
   <si>
     <t>Instant</t>
   </si>
   <si>
-    <t>Determine wether an item / place is magical beyond being a simple resplendant item</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disable </t>
   </si>
   <si>
-    <t>insatsnt</t>
-  </si>
-  <si>
     <t>4 tiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause a mechanical device to spontaniously fail. Choose 1 device within range. This includes but is not limited to, a lock, a mechanical trap, a firearm, or a crossbow. This device then "fails". It may cause a lock to open, a trap to trigger prematurely, or a ranged weapon to missfire. </t>
-  </si>
-  <si>
-    <t>Forcefeild</t>
-  </si>
-  <si>
     <t>Conjure a sphere of force around a target granting the target 1 defense</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>10 tiles</t>
   </si>
   <si>
-    <t>Designate a tile where plants could concevable grow. Plants shoot up from the tile and wrap around anything that touch them. The tiles affected by tiles are conisdered difficult terrain.</t>
-  </si>
-  <si>
     <t>Haste</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>1 tile</t>
   </si>
   <si>
-    <t>Fill a crteature with energy and vigor. Grant a creature 1 extra action on their next turn.</t>
-  </si>
-  <si>
     <t>Healing field</t>
   </si>
   <si>
@@ -171,9 +147,6 @@
     <t>Mind trick</t>
   </si>
   <si>
-    <t>An invoker can use their magic to make to subley influence the mind of anybody they communicate with. Make a mental attack againt somebody you are communicating with. You you sucseed, you gain +1 diplomacy and +1 intreguie in a particual interaction. This spell is silent.</t>
-  </si>
-  <si>
     <t>Muffle</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
     <t>cone 2</t>
   </si>
   <si>
-    <t>Release a cone of statc electricty dealing 1 eletric damage to all targets in range.</t>
-  </si>
-  <si>
     <t>Throw voice</t>
   </si>
   <si>
@@ -219,21 +189,12 @@
     <t>Brotherhood</t>
   </si>
   <si>
-    <t>Bind 2 creaturs together who will share a deep bond until the spell is broken. Designate 2 creatures to bind. These creatures may not attack each other untill the spell is broken. To break the spell either target may make a mental attack vs your mental defense. Once one creature has broken the spell, the other is released.</t>
-  </si>
-  <si>
     <t>Command</t>
   </si>
   <si>
-    <t>Utter a simple command to a creature. If you suceed on a mental attack againt a creature that can understand you, they must follow the command to the fullest extent possible on their next turn given it will not reasonably result in their death.. Some example commands are "Attack your ally","Drop your weapon", "run as far away as possible", and "tell your suprior officer you saw intruders over there".</t>
-  </si>
-  <si>
     <t>Influence</t>
   </si>
   <si>
-    <t>Convince a creature that a beleviable lie is true. As you lie to a target, make a mental attack. If you sucseed, they belive you unquestionably</t>
-  </si>
-  <si>
     <t>Icy shower</t>
   </si>
   <si>
@@ -258,15 +219,9 @@
     <t>read desc.</t>
   </si>
   <si>
-    <t>Create a ring of fire centered on you. This ring has a 3 tile radius and any creature that begins their turn on or crosses this firery barrier takes 2 fire damage.</t>
-  </si>
-  <si>
     <t>Rocky Carapace</t>
   </si>
   <si>
-    <t>Harden your carapace untill it resembes rocks. +2 armor for the spell's duration.</t>
-  </si>
-  <si>
     <t>Scorching ray</t>
   </si>
   <si>
@@ -288,9 +243,6 @@
     <t>Whirlwind</t>
   </si>
   <si>
-    <t>Release a whirlwind around you pushing any creatures and objects no more than 1 size category larger than you away in a strat line until they are 4 tiles away or stopped by an object big enough not to be blown away.</t>
-  </si>
-  <si>
     <t>Fly</t>
   </si>
   <si>
@@ -306,69 +258,36 @@
     <t>Freeze</t>
   </si>
   <si>
-    <t>Freeze a target in a block of magical ice dealing 3 cold damage and making the target immune to physical and elemental damage untill the beginning of your next turn when the ice weakens enough to shatter.</t>
-  </si>
-  <si>
-    <t>Sustinance</t>
-  </si>
-  <si>
     <t>24 hours</t>
   </si>
   <si>
-    <t>Invoke spiritiual energy into your party to ststain their needs for the day. For 24 hours you and 3 other designiated creatures you can see do not suffer the effects of hunger or thirst</t>
-  </si>
-  <si>
     <t xml:space="preserve">Psychic </t>
   </si>
   <si>
-    <t>Attack your opponet on the mental plane. Preform a mental attack and deal damage equal to the ammount you sucseed by</t>
-  </si>
-  <si>
     <t>Speak with plants/fungus</t>
   </si>
   <si>
     <t>0 actions</t>
   </si>
   <si>
-    <t>Touch a plant or fungus and how well it's conditons for survival are. In addition you can feel it's whole network of roots or mycellium and determine if there are creatures on top or within it.</t>
-  </si>
-  <si>
     <t>Swap places</t>
   </si>
   <si>
-    <t xml:space="preserve">In a flash of light, you and a target swap places. Designate a target within range swap places with that target. Cratures swaped with this spell maintain the speed they had before swapping. </t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
     <t>Blink</t>
   </si>
   <si>
-    <t>insant</t>
-  </si>
-  <si>
-    <t>Insantly teleopt up to 10 tiles in any direction</t>
-  </si>
-  <si>
     <t>Clone</t>
   </si>
   <si>
     <t>10 rounds</t>
   </si>
   <si>
-    <t>Create an illusionary double with 1 HP that can talk, interact with items in the enviornent, and cast spells using your spell points, but is incable of perforing physical attacks. This clone moves and performs actions seperatly from you but shaers your initiative and base attack and defense. If the clone takes damage or the spell expires the clone immidiatly dissapates.</t>
-  </si>
-  <si>
-    <t>Eletric Mirror</t>
-  </si>
-  <si>
     <t>4 rounds</t>
   </si>
   <si>
-    <t>Send out a medium sized rectangular semitransparent mirror cackling with eletrcity. Any prjectiles or spells directed at the mirror are reflected back at the user with the same attack or effects they would have had. Any creature who ends their tuirn or passes through the mirror willingly or otherwise take 5 damage.</t>
-  </si>
-  <si>
     <t>Enthrall Creature</t>
   </si>
   <si>
@@ -384,9 +303,6 @@
     <t>Fein Death</t>
   </si>
   <si>
-    <t>Appear completely dead. For 1 hour your body temporature drops, your breath stops, and your Hymolymph stops flowing. During this hour spells that affect corpses affect you as if you were dead. And continue to affect you after the spell has expired. This spell is silent.</t>
-  </si>
-  <si>
     <t>3 tile radius</t>
   </si>
   <si>
@@ -405,9 +321,6 @@
     <t>Lightning</t>
   </si>
   <si>
-    <t>insatnt</t>
-  </si>
-  <si>
     <t>Call a bolt of lightning from the atmosphere down upon a target. If there is nothing obstructing the sky above a target within range you may call down a lightning strike dong 2d4 damage</t>
   </si>
   <si>
@@ -417,48 +330,30 @@
     <t>2 rounds</t>
   </si>
   <si>
-    <t>Emit a cloud of poison mist whenever a creature breaks your charapace. Whenever you take damage from an enemy within 2 tiles, the target takes 3 damage and is inflicted with a poision that deals one damage every round for 10 rounds.</t>
-  </si>
-  <si>
     <t>Raise dead</t>
   </si>
   <si>
     <t>6 hours</t>
   </si>
   <si>
-    <t>Touch a lagre or smaller dead creture. For the duration of this spell this creature raises as either a a shambler or a hollow depending on it's level of decay. This creture retains it's equipment but uses the appropriate stat block. If the spell expires of the creature reaches 0 Hp the corpse becomes innanimate again.</t>
-  </si>
-  <si>
     <t>Shadow Strike</t>
   </si>
   <si>
-    <t>Turn into a black mist and plant harmfull magic enegry into any cretures you pass Though. Travel 8 tiles. Any creatures you pass through take 1d4+1 damage.</t>
-  </si>
-  <si>
     <t>Sleep</t>
   </si>
   <si>
-    <t>Cause a creature to fall saleep. Make a mental attack against a creature. If you sucseed, the creature falls asleep for 10 turns. Sleeping creatures cannot perform actions and are considered vulnerable. If a sleeping creture is physicaly attacked, they wake up.</t>
-  </si>
-  <si>
     <t>Slow</t>
   </si>
   <si>
     <t>3 rounds</t>
   </si>
   <si>
-    <t>The target feels a great weight pressue on them from all directions restricting their movements. A slowed target has their speed halfed for the duration of the spell</t>
-  </si>
-  <si>
     <t>Wall of earth</t>
   </si>
   <si>
     <t>2 action</t>
   </si>
   <si>
-    <t>Create a continuous wall from the ground 5 tiles wide and 3 tiles high. Creatures standing on tiles you raise are rasied with them. This spell cannot be cast on concrete or metal surfaces or on surfaces with no solid ground such as on a boat.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Level 3 </t>
   </si>
   <si>
@@ -468,9 +363,6 @@
     <t>10tiles</t>
   </si>
   <si>
-    <t>Kaboom! Launch a pea sized ball of light in at a point. The ball of energy explodes dealing 3d4 damage to all creatures in a 5 tile radius. And cathcing all creatures, terrain, and flamable objects on fire.</t>
-  </si>
-  <si>
     <t>Greater Illusion</t>
   </si>
   <si>
@@ -483,48 +375,21 @@
     <t>Nullify</t>
   </si>
   <si>
-    <t>Prevent another creature from performing most magic. Perform a mental attack against a target. If you sucseed, the creature cannot cast spells other than cantrips for the spell's duration.</t>
-  </si>
-  <si>
-    <t>Possesion</t>
-  </si>
-  <si>
-    <t>Invade the mind fo a sleeping creature. Attempt a mental attack against a sleeping creature if you suceed, you poses them. Taking full control of their body for 24 hours or until you or the creature you are posessing is reduce to 0 HP. While you are possesing the creture you are consided asleep. While you are in someone else's body you retain their stats, but keep all of your skills and class features.</t>
-  </si>
-  <si>
     <t>Horrifying Gaze</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Any creaturs who look directly at you are subject to a mental attack. Those who fail are feared for a round. Creatures are subly aware of this effect, but have to look at you to attack you or are considered blined when attacking you.</t>
-  </si>
-  <si>
-    <t>Invisability</t>
-  </si>
-  <si>
-    <t>Make a willing creature invisable. Creatures must beat the invisable target in a skill contest: Perception VS Stealth(agil) to determine their location when they move. Otherwise an attacking creature is considered blind.</t>
-  </si>
-  <si>
     <t>Implosion</t>
   </si>
   <si>
-    <t>Cause a swell of dark magic to manifest inside a creture's body. Deal magic damage to a targetequal to 2d4 +your wisdom score.</t>
-  </si>
-  <si>
     <t>Rot</t>
   </si>
   <si>
-    <t>Cause a creature's physical form to decay. Reduce all of a cretures basic attributes by 2 for 24 hours.</t>
-  </si>
-  <si>
     <t>Time Warp</t>
   </si>
   <si>
-    <t>Start your turn over. Declare you are using this spell at the beginning of your turn. Before you end your turn, at any point, you may restart your turn from the beginning. If you do, or you let your turn end nromally, the spell is expended.</t>
-  </si>
-  <si>
     <t>Level 4</t>
   </si>
   <si>
@@ -540,7 +405,133 @@
     <t>Invincibility</t>
   </si>
   <si>
-    <t>Touch a creature. They may not take any damage untill the end of your next turn.</t>
+    <t>Utter a simple command to a creature. If you succeed on a mental attack against a creature that can understand you, they must follow the command to the fullest extent possible on their next turn given it will not reasonably result in their death.. Some example commands are "Attack your ally", "Drop your weapon", "run as far away as possible", and "tell your superior officer you saw intruders over there".</t>
+  </si>
+  <si>
+    <t>Convince a creature that a believable lie is true. As you lie to a target, make a mental attack. If you succeed, they believe you unquestionably</t>
+  </si>
+  <si>
+    <t>Create a ring of fire centered on you. This ring has a 3 tile radius and any creature that begins their turn on or crosses this fiery barrier takes 2 fire damage.</t>
+  </si>
+  <si>
+    <t>Harden your carapace until it resembles rocks. +2 armor for the spell's duration.</t>
+  </si>
+  <si>
+    <t>Release a whirlwind around you pushing any creatures and objects no more than 1 size category larger than you away in a strait line until they are 4 tiles away or stopped by an object big enough not to be blown away.</t>
+  </si>
+  <si>
+    <t>Freeze a target in a block of magical ice dealing 3 cold damage and making the target immune to physical and elemental damage until the beginning of your next turn when the ice weakens enough to shatter.</t>
+  </si>
+  <si>
+    <t>Sustenance</t>
+  </si>
+  <si>
+    <t>Invoke spiritual energy into your party to sustain their needs for the day. For 24 hours you and 3 other designated creatures you can see do not suffer the effects of hunger or thirst</t>
+  </si>
+  <si>
+    <t>Attack your opponent on the mental plane. Preform a mental attack and deal damage equal to the amount you succeed by</t>
+  </si>
+  <si>
+    <t>Touch a plant or fungus and how well it's conditions for survival are. In addition you can feel it's whole network of roots or mycelium and determine if there are creatures on top or within it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a flash of light, you and a target swap places. Designate a target within range swap places with that target. Creatures swapped with this spell maintain the speed they had before swapping. </t>
+  </si>
+  <si>
+    <t>Instantly teleport up to 10 tiles in any direction</t>
+  </si>
+  <si>
+    <t>Electric Mirror</t>
+  </si>
+  <si>
+    <t>Send out a medium sized rectangular semitransparent mirror cackling with electricity. Any projectiles or spells directed at the mirror are reflected back at the user with the same attack or effects they would have had. Any creature who ends their turn or passes through the mirror willingly or otherwise take 5 damage.</t>
+  </si>
+  <si>
+    <t>Appear completely dead. For 1 hour your body temperature drops, your breath stops, and your Hemolymph stops flowing. During this hour spells that affect corpses affect you as if you were dead. And continue to affect you after the spell has expired. This spell is silent.</t>
+  </si>
+  <si>
+    <t>Emit a cloud of poison mist whenever a creature breaks your carapace. Whenever you take damage from an enemy within 2 tiles, the target takes 3 damage and is inflicted with a poison that deals one damage every round for 10 rounds.</t>
+  </si>
+  <si>
+    <t>Touch a large or smaller dead creature. For the duration of this spell this creature raises as either a  shambler or a hollow depending on it's level of decay. This creature retains it's equipment but uses the appropriate stat block. If the spell expires of the creature reaches 0 Hp the corpse becomes inanimate again.</t>
+  </si>
+  <si>
+    <t>Turn into a black mist and plant harmful magic energy into any creatures you pass Though. Travel 8 tiles. Any creatures you pass through take 1d4+1 damage.</t>
+  </si>
+  <si>
+    <t>Cause a creature to fall asleep. Make a mental attack against a creature. If you succeed, the creature falls asleep for 10 turns. Sleeping creatures cannot perform actions and are considered vulnerable. If a sleeping creature is physically attacked, they wake up.</t>
+  </si>
+  <si>
+    <t>The target feels a great weight pressure on them from all directions restricting their movements. A slowed target has their speed halved for the duration of the spell</t>
+  </si>
+  <si>
+    <t>Create a continuous wall from the ground 5 tiles wide and 3 tiles high. Creatures standing on tiles you raise are raised with them. This spell cannot be cast on concrete or metal surfaces or on surfaces with no solid ground such as on a boat.</t>
+  </si>
+  <si>
+    <t>Kaboom! Launch a pea sized ball of light in at a point. The ball of energy explodes dealing 3d4 damage to all creatures in a 5 tile radius. And catching all creatures, terrain, and flammable objects on fire.</t>
+  </si>
+  <si>
+    <t>Prevent another creature from performing most magic. Perform a mental attack against a target. If you succeed, the creature cannot cast spells other than cantrips for the spell's duration.</t>
+  </si>
+  <si>
+    <t>Possession</t>
+  </si>
+  <si>
+    <t>Invade the mind of a sleeping creature. Attempt a mental attack against a sleeping creature if you succeed, you poses them. Taking full control of their body for 24 hours or until you or the creature you are possessing is reduce to 0 HP. While you are possessing the creature you are considered asleep. While you are in someone else's body you retain their stats, but keep all of your skills and class features.</t>
+  </si>
+  <si>
+    <t>Any creatures who look directly at you are subject to a mental attack. Those who fail are feared for a round. Creatures are subtly aware of this effect, but have to look at you to attack you or are considered blinded when attacking you.</t>
+  </si>
+  <si>
+    <t>Invisibility</t>
+  </si>
+  <si>
+    <t>Make a willing creature invisible. Creatures must beat the invisible target in a skill contest: Perception VS Stealth(agil) to determine their location when they move. Otherwise an attacking creature is considered blind.</t>
+  </si>
+  <si>
+    <t>Cause a swell of dark magic to manifest inside a creature's body. Deal magic damage to a target equal to 2d4 +your wisdom score.</t>
+  </si>
+  <si>
+    <t>Cause a creature's physical form to decay. Reduce all of a creatures basic attributes by 2 for 24 hours.</t>
+  </si>
+  <si>
+    <t>Start your turn over. Declare you are using this spell at the beginning of your turn. Before you end your turn, at any point, you may restart your turn from the beginning. If you do, or you let your turn end normally, the spell is expended.</t>
+  </si>
+  <si>
+    <t>Touch a creature. They may not take any damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>Shoot an inviable bolt of force at super sonic speeds at a target. Make a physical ranged attack with weapon damage 2 vs a target using your wisdom instead of your strength. This spell counts as an attack for the multiple attack penalty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strike a pose and gather power for the next attack. Your next invocation or cantrip has +2 attack, +1 damage, or it's DCs are raised by 2. </t>
+  </si>
+  <si>
+    <t>Determine whether an item / place is magical beyond being a simple resplendent item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause a mechanical device to spontaneously fail. Choose 1 device within range. This includes but is not limited to, a lock, a mechanical trap, a firearm, or a crossbow. This device then "fails". It may cause a lock to open, a trap to trigger prematurely, or a ranged weapon to misfire. </t>
+  </si>
+  <si>
+    <t>Forcefield</t>
+  </si>
+  <si>
+    <t>Designate a tile where plants could conceivable grow. Plants shoot up from the tile and wrap around anything that touch them. The tiles affected by tiles are considered difficult terrain.</t>
+  </si>
+  <si>
+    <t>Fill a creature with energy and vigor. Grant a creature 1 extra action on their next turn.</t>
+  </si>
+  <si>
+    <t>An invoker can use their magic to make to subtly influence the mind of anybody they communicate with. Make a mental attack against somebody you are communicating with. You  succeed, you gain +1 diplomacy and +1 intrigue in a particular interaction. This spell is silent.</t>
+  </si>
+  <si>
+    <t>Release a cone of static electricity dealing 1 electric damage to all targets in range.</t>
+  </si>
+  <si>
+    <t>Bind 2 creatures together who will share a deep bond until the spell is broken. Designate 2 creatures to bind. These creatures may not attack each other until the spell is broken. To break the spell either target may make a mental attack vs your mental defense. Once one creature has broken the spell, the other is released.</t>
+  </si>
+  <si>
+    <t>Create an illusionary double with 1 HP that can talk, interact with items in the environment, and cast spells using your spell points, but is incapable of performing physical attacks. This clone moves and performs actions separately from you but shares your initiative and base attack and defense. If the clone takes damage or the spell expires the clone immediately dissipates.</t>
   </si>
 </sst>
 </file>
@@ -922,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F285714-8B6E-46F0-A58A-0027C3156D8E}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,211 +979,211 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
@@ -1204,31 +1195,31 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -1237,28 +1228,28 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,13 +1262,13 @@
     </row>
     <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1286,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -1301,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1319,88 +1310,88 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -1409,145 +1400,145 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
@@ -1556,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,22 +1560,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,217 +1589,217 @@
     <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,19 +1813,19 @@
     <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,19 +1886,19 @@
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>144</v>
@@ -1916,97 +1907,97 @@
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
@@ -2018,43 +2009,43 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2058,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2085,22 +2076,22 @@
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,19 +2105,19 @@
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
